--- a/实验结果/处理结果/result/3-15--3-5/60cm.xlsx
+++ b/实验结果/处理结果/result/3-15--3-5/60cm.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-yuqwe\Documents\GitHub\lab\result\3-15--3-5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CV\实验结果\处理结果\result\3-15--3-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21870" windowHeight="13170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21870" windowHeight="13170" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,12 +52,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -85,7 +92,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -103,7 +110,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -174,7 +181,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -376,52 +383,52 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1500</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="16">
                   <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -436,52 +443,52 @@
                   <c:v>1102</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1131.2186023312386</c:v>
+                  <c:v>1101.2457929115326</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1104.6379388710036</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1105.301120900406</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1107.0156104619159</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1110.569063948418</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1112.3553872561981</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1112.333315784756</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1112.43340256941</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1116.3581388335981</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1120.8950095643283</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1124.142460515518</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1125.505591458415</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1127.5765012067161</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1131.2186023312386</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1141.0585811861872</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>1105.301120900406</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="16">
                   <c:v>1150.8732354972783</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1107.0156104619159</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1110.569063948418</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1112.3553872561981</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1112.333315784756</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1112.43340256941</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1116.3581388335981</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1101.2457929115326</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1120.8950095643283</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1124.142460515518</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1125.505591458415</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1127.5765012067161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -496,11 +503,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="718817072"/>
-        <c:axId val="718817856"/>
+        <c:axId val="2118979376"/>
+        <c:axId val="2118988624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="718817072"/>
+        <c:axId val="2118979376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000"/>
@@ -564,7 +571,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -602,15 +609,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="718817856"/>
+        <c:crossAx val="2118988624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="718817856"/>
+        <c:axId val="2118988624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -687,7 +694,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -725,10 +732,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="718817072"/>
+        <c:crossAx val="2118979376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -768,7 +775,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -798,7 +805,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -812,7 +819,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -876,7 +883,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1272,11 +1279,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="522664304"/>
-        <c:axId val="522667832"/>
+        <c:axId val="2118979920"/>
+        <c:axId val="2118986992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="522664304"/>
+        <c:axId val="2118979920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1339,7 +1346,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1377,15 +1384,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522667832"/>
+        <c:crossAx val="2118986992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="522667832"/>
+        <c:axId val="2118986992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1457,7 +1464,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1495,10 +1502,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522664304"/>
+        <c:crossAx val="2118979920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1538,7 +1545,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1568,7 +1575,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2696,13 +2703,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>157161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -2902,6 +2909,9 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A18:B35" totalsRowShown="0">
   <autoFilter ref="A18:B35"/>
+  <sortState ref="A19:B35">
+    <sortCondition ref="A18:A35"/>
+  </sortState>
   <tableColumns count="2">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -2953,7 +2963,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3217,21 +3227,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3239,7 +3249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3254,7 +3264,7 @@
         <v>6.7804047066072144</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>200</v>
       </c>
@@ -3266,7 +3276,7 @@
         <v>1095.9350082673816</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>250</v>
       </c>
@@ -3274,7 +3284,7 @@
         <v>1111.9863654845572</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>300</v>
       </c>
@@ -3282,7 +3292,7 @@
         <v>1116.2762223872032</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>350</v>
       </c>
@@ -3290,7 +3300,7 @@
         <v>1117.649397666404</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>400</v>
       </c>
@@ -3298,7 +3308,7 @@
         <v>1119.9562363713001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>500</v>
       </c>
@@ -3306,7 +3316,7 @@
         <v>1125.0875352321898</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>800</v>
       </c>
@@ -3314,7 +3324,7 @@
         <v>1137.0173182903759</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1000</v>
       </c>
@@ -3322,7 +3332,7 @@
         <v>1145.56151990686</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1200</v>
       </c>
@@ -3330,7 +3340,7 @@
         <v>1149.670657550836</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1500</v>
       </c>
@@ -3338,7 +3348,7 @@
         <v>1159.0433681202919</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1800</v>
       </c>
@@ -3346,7 +3356,7 @@
         <v>1167.2470849369299</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2000</v>
       </c>
@@ -3354,12 +3364,12 @@
         <v>1173.7088805185001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -3367,7 +3377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>0</v>
       </c>
@@ -3378,15 +3388,15 @@
         <v>1103.0411579540382</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="B20">
-        <v>1131.2186023312386</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1101.2457929115326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>100</v>
       </c>
@@ -3395,130 +3405,131 @@
       </c>
       <c r="D21">
         <f>B25-Table2[[#This Row],[Column2]]</f>
-        <v>2.3776715909123141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.7174483851945297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="B22">
-        <v>1141.0585811861872</v>
+        <v>1105.301120900406</v>
       </c>
       <c r="D22">
         <f>B21-D21</f>
-        <v>1102.2602672800913</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1096.9204904858091</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="B23">
-        <v>1105.301120900406</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1107.0156104619159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="B24">
-        <v>1150.8732354972783</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1110.569063948418</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="B25">
-        <v>1107.0156104619159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1112.3553872561981</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="B26">
-        <v>1110.569063948418</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1112.333315784756</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="B27">
-        <v>1112.3553872561981</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1112.43340256941</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="B28">
-        <v>1112.333315784756</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1116.3581388335981</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="B29">
-        <v>1112.43340256941</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>500</v>
-      </c>
-      <c r="B30">
-        <v>1116.3581388335981</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>50</v>
-      </c>
-      <c r="B31">
-        <v>1101.2457929115326</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>600</v>
-      </c>
-      <c r="B32">
         <f>AVERAGE('[1]bend90-60cm'!B73:B78)</f>
         <v>1120.8950095643283</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30">
         <v>700</v>
       </c>
-      <c r="B33">
+      <c r="B30">
         <f>AVERAGE('[1]bend90-60cm'!B79:B83)</f>
         <v>1124.142460515518</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31">
         <v>800</v>
       </c>
-      <c r="B34">
+      <c r="B31">
         <f>AVERAGE('[1]bend90-60cm'!B84:B89)</f>
         <v>1125.505591458415</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32">
         <v>900</v>
       </c>
-      <c r="B35">
+      <c r="B32">
         <f>AVERAGE('[1]bend90-60cm'!B90:B94)</f>
         <v>1127.5765012067161</v>
       </c>
     </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>1000</v>
+      </c>
+      <c r="B33">
+        <v>1131.2186023312386</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>1500</v>
+      </c>
+      <c r="B34">
+        <v>1141.0585811861872</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>2000</v>
+      </c>
+      <c r="B35">
+        <v>1150.8732354972783</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3533,16 +3544,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -3550,7 +3561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3564,7 +3575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3578,7 +3589,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>100</v>
       </c>
@@ -3592,7 +3603,7 @@
         <v>1109.495817680596</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>150</v>
       </c>
@@ -3606,7 +3617,7 @@
         <v>1111.9863654845572</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>200</v>
       </c>
@@ -3620,7 +3631,7 @@
         <v>1116.2762223872032</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>250</v>
       </c>
@@ -3634,7 +3645,7 @@
         <v>1117.649397666404</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>300</v>
       </c>
@@ -3648,7 +3659,7 @@
         <v>1119.9562363713001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>350</v>
       </c>
@@ -3662,7 +3673,7 @@
         <v>1125.0875352321898</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>400</v>
       </c>
@@ -3676,7 +3687,7 @@
         <v>1137.0173182903759</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>500</v>
       </c>
@@ -3690,7 +3701,7 @@
         <v>1145.56151990686</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1000</v>
       </c>
@@ -3704,7 +3715,7 @@
         <v>1149.670657550836</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1500</v>
       </c>
@@ -3718,7 +3729,7 @@
         <v>1159.0433681202919</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>2000</v>
       </c>
@@ -3732,7 +3743,7 @@
         <v>1167.2470849369299</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E15">
         <v>2000</v>
       </c>
@@ -3740,12 +3751,12 @@
         <v>1173.7088805185001</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -3753,7 +3764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>0</v>
       </c>
@@ -3761,7 +3772,7 @@
         <v>1092.4578937234817</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>100</v>
       </c>
@@ -3769,7 +3780,7 @@
         <v>1089.1107003412162</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>150</v>
       </c>
@@ -3777,7 +3788,7 @@
         <v>1090.8534952354771</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>200</v>
       </c>
@@ -3785,7 +3796,7 @@
         <v>1091.4979265159329</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>250</v>
       </c>
@@ -3793,7 +3804,7 @@
         <v>1094.6118269210872</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>300</v>
       </c>
@@ -3801,7 +3812,7 @@
         <v>1098.5522902302944</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>350</v>
       </c>
@@ -3809,7 +3820,7 @@
         <v>1101.2162860115955</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>400</v>
       </c>
@@ -3817,7 +3828,7 @@
         <v>1100.9863232684286</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>500</v>
       </c>
@@ -3825,7 +3836,7 @@
         <v>1105.5085228410437</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>600</v>
       </c>
@@ -3833,7 +3844,7 @@
         <v>1108.0169995798658</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>800</v>
       </c>
@@ -3841,7 +3852,7 @@
         <v>1115.5062469066672</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>1000</v>
       </c>
@@ -3849,7 +3860,7 @@
         <v>1122.7147863919799</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>1500</v>
       </c>
@@ -3857,7 +3868,7 @@
         <v>1134.667659844223</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>2000</v>
       </c>
@@ -3866,6 +3877,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
